--- a/รายงานการประชุมครั้งที่1-2567 rev.2.xlsx
+++ b/รายงานการประชุมครั้งที่1-2567 rev.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtl90253\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://murataglobal-my.sharepoint.com/personal/mtl01681_murata_com/Documents/デスクトップ/Github/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D968F63E-39BB-4AEF-A861-5BC617AA1F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D968F63E-39BB-4AEF-A861-5BC617AA1F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{197F6836-6E4C-4E0F-99B2-7F2F12CB2D8A}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B4A2017-DEF9-4698-8499-60668B980511}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7B4A2017-DEF9-4698-8499-60668B980511}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>สมาชิกที่มาประชุม</t>
   </si>
   <si>
-    <t>จำนวน 25 หลัง</t>
-  </si>
-  <si>
     <t>สมาชิกที่ไม่มาประชุม</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>ทบทวนทางบัญชี โดยเริ่มตั้งแต่รอบบิลเรียกเก็บของเดือน มกราคม 2567 เป็นต้นไป</t>
+  </si>
+  <si>
+    <t>จำนวน 2500 หลัง</t>
   </si>
 </sst>
 </file>
@@ -563,10 +563,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1015,77 +1015,77 @@
   <dimension ref="A9:J204"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="3"/>
+    <col min="7" max="7" width="14.6640625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1097,7 +1097,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1109,13 +1109,13 @@
       <c r="I14" s="4"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1124,7 +1124,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1135,13 +1135,13 @@
       <c r="I16" s="4"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1149,7 +1149,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="E18" s="4"/>
@@ -1158,13 +1158,13 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1172,7 +1172,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1182,13 +1182,13 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1196,7 +1196,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1207,10 +1207,10 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4"/>
       <c r="E23" s="4"/>
@@ -1219,9 +1219,9 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1229,7 +1229,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1237,9 +1237,9 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1250,9 +1250,9 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1260,9 +1260,9 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1270,10 +1270,10 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1283,10 +1283,10 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1294,10 +1294,10 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4"/>
       <c r="E31" s="4"/>
@@ -1306,7 +1306,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="C32" s="4"/>
       <c r="E32" s="4"/>
@@ -1315,40 +1315,40 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1356,26 +1356,26 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1383,14 +1383,14 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1398,14 +1398,14 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1413,14 +1413,14 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1428,14 +1428,14 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1443,14 +1443,14 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1458,7 +1458,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1469,10 +1469,10 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1482,10 +1482,10 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1495,7 +1495,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1506,142 +1506,142 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1652,10 +1652,10 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1665,10 +1665,10 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1678,10 +1678,10 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1691,7 +1691,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1702,10 +1702,10 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1715,10 +1715,10 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1728,10 +1728,10 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1741,7 +1741,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1752,13 +1752,13 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -1767,7 +1767,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1777,10 +1777,10 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -1790,7 +1790,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1801,9 +1801,9 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
@@ -1816,10 +1816,10 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1829,10 +1829,10 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -1842,10 +1842,10 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -1855,10 +1855,10 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -1868,10 +1868,10 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -1881,10 +1881,10 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -1894,10 +1894,10 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -1907,63 +1907,63 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D93" s="10" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D94" s="10" t="s">
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D94" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -1971,89 +1971,89 @@
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D96" s="10" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D96" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D97" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D97" s="10" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D98" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D98" s="10" t="s">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2064,101 +2064,101 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="3" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C116" s="3" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="7" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C120" s="3" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="3" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="3" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="3" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C126" s="3" t="s">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -2166,195 +2166,194 @@
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E165" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C172" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B175" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B176" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B178" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C172" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="3" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B179" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="3" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C179" s="3" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B183" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B184" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B185" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B186" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="3" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B188" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="3" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B189" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B190" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="3" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B191" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="3" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B192" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="3" t="s">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B193" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="3" t="s">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B195" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="3" t="s">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D197" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D197" s="10" t="s">
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D200" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D201" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
-      <c r="I197" s="10"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D200" s="10" t="s">
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
+      <c r="I201" s="9"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="9"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D203" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D201" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D203" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D204" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D204" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
     <mergeCell ref="D204:I204"/>
     <mergeCell ref="A108:I108"/>
     <mergeCell ref="F162:I162"/>
@@ -2366,10 +2365,11 @@
     <mergeCell ref="D201:I201"/>
     <mergeCell ref="D202:I202"/>
     <mergeCell ref="D203:I203"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.45" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
